--- a/proyecto/iteraciones/Product BackLog.xlsx
+++ b/proyecto/iteraciones/Product BackLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="128">
   <si>
     <t>Prioridad</t>
   </si>
@@ -389,9 +389,6 @@
 Porcentajes obtenidos a lo largo del tiempo (tipo polígono de frecuencias).</t>
   </si>
   <si>
-    <t>Debe funcionar en Windows y Linux.</t>
-  </si>
-  <si>
     <t>Actualizar el estado del examen como cancelado.
 Solicitar ingreso de una descripción del motivo de la cancelación.</t>
   </si>
@@ -406,6 +403,18 @@
   </si>
   <si>
     <t>Permitir anular el examen a un alumno en particular.</t>
+  </si>
+  <si>
+    <t>FInalizado</t>
+  </si>
+  <si>
+    <t>No hacer</t>
+  </si>
+  <si>
+    <t>Repetido</t>
+  </si>
+  <si>
+    <t>No se que quiere inventar</t>
   </si>
 </sst>
 </file>
@@ -873,6 +882,7 @@
   <autoFilter ref="B3:J142">
     <filterColumn colId="5">
       <filters>
+        <filter val="En desarrollo"/>
         <filter val="Pendiente"/>
       </filters>
     </filterColumn>
@@ -1198,7 +1208,7 @@
   <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1372,9 @@
       <c r="I6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="1"/>
     </row>
@@ -2064,10 +2076,10 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H28" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" s="4">
         <v>3</v>
@@ -2241,7 +2253,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2262,9 +2274,11 @@
         <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="H34" s="3">
+        <v>18</v>
+      </c>
       <c r="I34" s="4" t="s">
         <v>54</v>
       </c>
@@ -2293,17 +2307,15 @@
         <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H35" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="J35" s="19"/>
       <c r="K35" s="5"/>
       <c r="L35" s="1"/>
     </row>
@@ -2328,10 +2340,10 @@
         <v>8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H36" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I36" s="4">
         <v>3</v>
@@ -2788,9 +2800,11 @@
         <v>5</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="H50" s="3">
+        <v>18</v>
+      </c>
       <c r="I50" s="4" t="s">
         <v>54</v>
       </c>
@@ -2897,7 +2911,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2918,9 +2932,11 @@
         <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="H54" s="3">
+        <v>17</v>
+      </c>
       <c r="I54" s="4" t="s">
         <v>54</v>
       </c>
@@ -2988,7 +3004,9 @@
       <c r="I56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="19"/>
+      <c r="J56" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="K56" s="5"/>
       <c r="L56" s="1"/>
     </row>
@@ -3013,9 +3031,11 @@
         <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="H57" s="3">
+        <v>18</v>
+      </c>
       <c r="I57" s="4" t="s">
         <v>54</v>
       </c>
@@ -3122,7 +3142,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3155,7 +3175,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3188,7 +3208,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3218,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="1"/>
@@ -3414,7 +3434,9 @@
       <c r="I69" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J69" s="12"/>
+      <c r="J69" s="12" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
@@ -3567,7 +3589,7 @@
       </c>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3666,7 +3688,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>66</v>
@@ -3681,10 +3703,10 @@
         <v>15</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H78" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I78" s="4">
         <v>3</v>
@@ -3718,7 +3740,9 @@
       <c r="I79" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J79" s="12"/>
+      <c r="J79" s="12" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
@@ -3838,7 +3862,9 @@
       <c r="I83" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J83" s="12"/>
+      <c r="J83" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
@@ -3901,7 +3927,7 @@
         <v>2</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -3956,10 +3982,10 @@
         <v>20</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H87" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I87" s="4">
         <v>3</v>
@@ -3987,10 +4013,10 @@
         <v>16</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H88" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I88" s="4">
         <v>3</v>
@@ -4003,7 +4029,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>66</v>
@@ -4018,10 +4044,10 @@
         <v>16</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H89" s="13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I89" s="14">
         <v>3</v>
@@ -4080,17 +4106,17 @@
         <v>30</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H91" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="189" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4146,7 +4172,9 @@
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="14"/>
-      <c r="J93" s="12"/>
+      <c r="J93" s="12" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
@@ -4272,7 +4300,7 @@
       </c>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4299,7 +4327,9 @@
         <v>10</v>
       </c>
       <c r="I98" s="14"/>
-      <c r="J98" s="12"/>
+      <c r="J98" s="12" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
@@ -4307,7 +4337,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>66</v>

--- a/proyecto/iteraciones/Product BackLog.xlsx
+++ b/proyecto/iteraciones/Product BackLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="146">
   <si>
     <t>Prioridad</t>
   </si>
@@ -399,29 +399,83 @@
     <t>Exportar todas las resoluciones con sus correcciones de un examen por email (enviar un pdf por cada resolución del examen a cada alumno).</t>
   </si>
   <si>
-    <t>Un archivo .entropy que se pueda abrir.</t>
-  </si>
-  <si>
     <t>Permitir anular el examen a un alumno en particular.</t>
   </si>
   <si>
     <t>FInalizado</t>
   </si>
   <si>
-    <t>No hacer</t>
-  </si>
-  <si>
     <t>Repetido</t>
   </si>
   <si>
     <t>No se que quiere inventar</t>
+  </si>
+  <si>
+    <t>Priorizado para release despues de entrega</t>
+  </si>
+  <si>
+    <t>Agregar funcionalidad al boton imprimir</t>
+  </si>
+  <si>
+    <t>Boton visualizar sacar de interfaz</t>
+  </si>
+  <si>
+    <t>Detenet Red Ad-Hoc</t>
+  </si>
+  <si>
+    <t>Ver examen hecho por alumno</t>
+  </si>
+  <si>
+    <t>Arreglar imposibilidad de tomar 2 examenes seguidos</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje de error cuando alumno pone mal ip</t>
+  </si>
+  <si>
+    <t>Resize y cerrar hilo de presentacion</t>
+  </si>
+  <si>
+    <t>Agregar boton de de terminar al examen</t>
+  </si>
+  <si>
+    <t>Agregar Boton seleccionar y deseleccionar todo en importar pregunta</t>
+  </si>
+  <si>
+    <t>Reloj en alumno con duracion del examen</t>
+  </si>
+  <si>
+    <t>No permitir que se muestre automaticamente correccion al finalizar examen</t>
+  </si>
+  <si>
+    <t>Informacion del diseño de examen en distintas interfaces</t>
+  </si>
+  <si>
+    <t>PDF resolucion mejorar interfaz</t>
+  </si>
+  <si>
+    <t>Informes apartir de aplicar inteligencia de negocios</t>
+  </si>
+  <si>
+    <t>Asistencia a clases a partir de presentaciones</t>
+  </si>
+  <si>
+    <t>Generar documento de Test</t>
+  </si>
+  <si>
+    <t>Datos Generales del examen en seccion tomar</t>
+  </si>
+  <si>
+    <t>Actualizar documentos de gestion y planes</t>
+  </si>
+  <si>
+    <t>Informacion del diseño de examen en la correccion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,13 +559,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -581,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,9 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -879,14 +923,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B3:J142" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B3:J142">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="En desarrollo"/>
-        <filter val="Pendiente"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:J142"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Historia" dataDxfId="8"/>
     <tableColumn id="2" name="Instancia" dataDxfId="7"/>
@@ -1207,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,31 +1260,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="24"/>
       <c r="K1" s="5"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="24"/>
       <c r="K2" s="5"/>
       <c r="L2" s="1"/>
@@ -1286,7 +1323,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -1316,7 +1353,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <f>A4+1</f>
         <v>2</v>
@@ -1347,7 +1384,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
@@ -1373,7 +1410,7 @@
         <v>54</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="1"/>
@@ -1407,7 +1444,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1438,7 +1475,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1469,7 +1506,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1500,7 +1537,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1531,7 +1568,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1562,7 +1599,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1593,7 +1630,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1626,7 +1663,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1659,7 +1696,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1692,7 +1729,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1725,7 +1762,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1758,7 +1795,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1791,7 +1828,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1824,7 +1861,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1857,7 +1894,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1890,7 +1927,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1923,7 +1960,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1956,7 +1993,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1989,7 +2026,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2022,7 +2059,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2055,7 +2092,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2088,7 +2125,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2121,7 +2158,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2154,7 +2191,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2187,7 +2224,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2220,7 +2257,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2253,7 +2290,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2286,7 +2323,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2319,7 +2356,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2352,7 +2389,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2385,7 +2422,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2418,7 +2455,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2451,7 +2488,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2484,7 +2521,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2517,7 +2554,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2550,7 +2587,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2583,7 +2620,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2616,7 +2653,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2649,7 +2686,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2713,7 +2750,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2746,7 +2783,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2800,7 +2837,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H50" s="3">
         <v>18</v>
@@ -2812,7 +2849,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2845,7 +2882,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2878,7 +2915,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2911,7 +2948,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2944,7 +2981,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3005,7 +3042,7 @@
         <v>54</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="1"/>
@@ -3031,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H57" s="3">
         <v>18</v>
@@ -3043,7 +3080,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3076,7 +3113,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3109,7 +3146,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3163,7 +3200,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H61" s="3">
         <v>10</v>
@@ -3199,10 +3236,10 @@
         <v>60</v>
       </c>
       <c r="H62" s="3">
-        <v>10</v>
-      </c>
-      <c r="I62" s="4">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J62" s="19"/>
       <c r="K62" s="5"/>
@@ -3229,21 +3266,19 @@
         <v>8</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H63" s="3">
-        <v>10</v>
-      </c>
-      <c r="I63" s="4">
-        <v>3</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3276,7 +3311,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3309,7 +3344,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3342,7 +3377,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3375,7 +3410,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3435,10 +3470,10 @@
         <v>54</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" ref="A70:A133" si="1">A69+1</f>
         <v>67</v>
@@ -3498,7 +3533,7 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3527,7 +3562,7 @@
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3558,7 +3593,7 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3620,7 +3655,7 @@
       </c>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3651,7 +3686,7 @@
       </c>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3682,7 +3717,7 @@
       </c>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3740,11 +3775,11 @@
       <c r="I79" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3773,7 +3808,7 @@
       </c>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3804,7 +3839,7 @@
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3863,10 +3898,10 @@
         <v>54</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3897,7 +3932,7 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3930,7 +3965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3961,7 +3996,7 @@
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3982,7 +4017,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H87" s="13">
         <v>13</v>
@@ -3992,7 +4027,7 @@
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4023,7 +4058,7 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4054,7 +4089,7 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4085,7 +4120,7 @@
       </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4140,7 +4175,7 @@
         <v>60</v>
       </c>
       <c r="H92" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="12" t="s">
@@ -4172,11 +4207,11 @@
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="14"/>
-      <c r="J93" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4207,7 +4242,7 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4238,7 +4273,7 @@
       </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4269,7 +4304,7 @@
       </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4321,23 +4356,21 @@
         <v>20</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H98" s="13">
-        <v>10</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H98" s="13"/>
       <c r="I98" s="14"/>
-      <c r="J98" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J98" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>66</v>
@@ -4362,292 +4395,534 @@
       </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
+      <c r="B100" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="13">
+        <v>3</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="13">
+        <v>19</v>
+      </c>
       <c r="I100" s="14"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
+      <c r="B101" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="13">
+        <v>3</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="13">
+        <v>19</v>
+      </c>
       <c r="I101" s="14"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
+      <c r="B102" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F102" s="13">
+        <v>5</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="13">
+        <v>19</v>
+      </c>
       <c r="I102" s="14"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
+      <c r="B103" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="13">
+        <v>10</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H103" s="13"/>
       <c r="I103" s="14"/>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
+      <c r="B104" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="13">
+        <v>8</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H104" s="13"/>
       <c r="I104" s="14"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
+      <c r="B105" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="13">
+        <v>6</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H105" s="13"/>
       <c r="I105" s="14"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
+      <c r="B106" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="13">
+        <v>6</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H106" s="13"/>
       <c r="I106" s="14"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+      <c r="B107" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="13">
+        <v>4</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H107" s="13">
+        <v>19</v>
+      </c>
       <c r="I107" s="14"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
+      <c r="B108" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="13">
+        <v>4</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H108" s="13">
+        <v>19</v>
+      </c>
       <c r="I108" s="14"/>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
+      <c r="B109" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="13">
+        <v>5</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H109" s="13"/>
       <c r="I109" s="14"/>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
+      <c r="B110" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="13">
+        <v>8</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" s="13">
+        <v>19</v>
+      </c>
       <c r="I110" s="14"/>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
+      <c r="B111" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F111" s="13">
+        <v>20</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H111" s="13"/>
       <c r="I111" s="14"/>
       <c r="J111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
+      <c r="B112" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="13">
+        <v>5</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H112" s="13"/>
       <c r="I112" s="14"/>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
+      <c r="B113" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F113" s="13">
+        <v>8</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H113" s="13"/>
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
+      <c r="B114" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114" s="13">
+        <v>30</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H114" s="13"/>
       <c r="I114" s="14"/>
       <c r="J114" s="12"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
+      <c r="B115" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="13">
+        <v>20</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H115" s="13">
+        <v>19</v>
+      </c>
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
+      <c r="B116" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116" s="13">
+        <v>6</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H116" s="13"/>
       <c r="I116" s="14"/>
       <c r="J116" s="12"/>
     </row>
-    <row r="117" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
+      <c r="B117" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F117" s="13">
+        <v>5</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H117" s="13"/>
       <c r="I117" s="14"/>
       <c r="J117" s="12"/>
     </row>
-    <row r="118" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
+      <c r="B118" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="13">
+        <v>5</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H118" s="13"/>
       <c r="I118" s="14"/>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4662,7 +4937,7 @@
       <c r="I119" s="14"/>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4677,7 +4952,7 @@
       <c r="I120" s="14"/>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4692,7 +4967,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4707,7 +4982,7 @@
       <c r="I122" s="14"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4722,7 +4997,7 @@
       <c r="I123" s="14"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -4737,7 +5012,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -4752,7 +5027,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -4767,7 +5042,7 @@
       <c r="I126" s="14"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -4782,7 +5057,7 @@
       <c r="I127" s="14"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -4797,7 +5072,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -4812,7 +5087,7 @@
       <c r="I129" s="14"/>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -4827,7 +5102,7 @@
       <c r="I130" s="14"/>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -4842,7 +5117,7 @@
       <c r="I131" s="14"/>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -4857,7 +5132,7 @@
       <c r="I132" s="14"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -4872,7 +5147,7 @@
       <c r="I133" s="14"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" ref="A134:A142" si="2">A133+1</f>
         <v>131</v>
@@ -4887,7 +5162,7 @@
       <c r="I134" s="14"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -4902,7 +5177,7 @@
       <c r="I135" s="14"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -4917,7 +5192,7 @@
       <c r="I136" s="14"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -4932,7 +5207,7 @@
       <c r="I137" s="14"/>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -4947,7 +5222,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -4962,7 +5237,7 @@
       <c r="I139" s="14"/>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -4977,7 +5252,7 @@
       <c r="I140" s="14"/>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -4992,7 +5267,7 @@
       <c r="I141" s="14"/>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f t="shared" si="2"/>
         <v>139</v>

--- a/proyecto/iteraciones/Product BackLog.xlsx
+++ b/proyecto/iteraciones/Product BackLog.xlsx
@@ -1234,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4530,9 +4530,11 @@
         <v>8</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H104" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="H104" s="13">
+        <v>21</v>
+      </c>
       <c r="I104" s="14"/>
       <c r="J104" s="12"/>
     </row>
@@ -4557,9 +4559,11 @@
         <v>6</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H105" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="H105" s="13">
+        <v>20</v>
+      </c>
       <c r="I105" s="14"/>
       <c r="J105" s="12"/>
     </row>
@@ -4584,9 +4588,11 @@
         <v>6</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H106" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="H106" s="13">
+        <v>20</v>
+      </c>
       <c r="I106" s="14"/>
       <c r="J106" s="12"/>
     </row>
@@ -4779,9 +4785,11 @@
         <v>8</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H113" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="H113" s="13">
+        <v>21</v>
+      </c>
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
     </row>
@@ -4833,10 +4841,10 @@
         <v>20</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H115" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
@@ -4889,9 +4897,11 @@
         <v>5</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H117" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="H117" s="13">
+        <v>21</v>
+      </c>
       <c r="I117" s="14"/>
       <c r="J117" s="12"/>
     </row>

--- a/proyecto/iteraciones/Product BackLog.xlsx
+++ b/proyecto/iteraciones/Product BackLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="146">
   <si>
     <t>Prioridad</t>
   </si>
@@ -923,7 +923,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B3:J142" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B3:J142"/>
+  <autoFilter ref="B3:J142">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="En desarrollo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="Historia" dataDxfId="8"/>
     <tableColumn id="2" name="Instancia" dataDxfId="7"/>
@@ -1234,7 +1240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1244,16 +1250,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="91.28515625" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="53.28515625" customWidth="1"/>
@@ -1323,7 +1330,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -1353,7 +1360,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <f>A4+1</f>
         <v>2</v>
@@ -1384,7 +1391,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
@@ -1415,7 +1422,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1444,7 +1451,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1475,7 +1482,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1506,7 +1513,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1537,7 +1544,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1568,7 +1575,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1599,7 +1606,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1630,7 +1637,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1663,7 +1670,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1696,7 +1703,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1729,7 +1736,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1762,7 +1769,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1795,7 +1802,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1828,7 +1835,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1861,7 +1868,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1894,7 +1901,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1927,7 +1934,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1960,7 +1967,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1993,7 +2000,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2026,7 +2033,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2059,7 +2066,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2092,7 +2099,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2125,7 +2132,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2158,7 +2165,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2191,7 +2198,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2224,7 +2231,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2257,7 +2264,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2290,7 +2297,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="32.25" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2323,7 +2330,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2356,7 +2363,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2389,7 +2396,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2422,7 +2429,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2455,7 +2462,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2488,7 +2495,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2521,7 +2528,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2554,7 +2561,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2587,7 +2594,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2620,7 +2627,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2653,7 +2660,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2686,7 +2693,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2719,7 +2726,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2740,9 +2747,11 @@
         <v>5</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="H47" s="3">
+        <v>22</v>
+      </c>
       <c r="I47" s="4" t="s">
         <v>54</v>
       </c>
@@ -2750,7 +2759,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2783,7 +2792,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2816,7 +2825,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2849,7 +2858,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2882,7 +2891,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2915,7 +2924,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2948,7 +2957,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2981,7 +2990,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3035,9 +3044,11 @@
         <v>5</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="H56" s="3">
+        <v>22</v>
+      </c>
       <c r="I56" s="4" t="s">
         <v>54</v>
       </c>
@@ -3047,7 +3058,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3080,7 +3091,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3113,7 +3124,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3146,7 +3157,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3179,7 +3190,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3233,7 +3244,7 @@
         <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H62" s="3">
         <v>12</v>
@@ -3245,7 +3256,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3278,7 +3289,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3311,7 +3322,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3344,7 +3355,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3377,7 +3388,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3410,7 +3421,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3442,7 +3453,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3473,7 +3484,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" ref="A70:A133" si="1">A69+1</f>
         <v>67</v>
@@ -3504,7 +3515,7 @@
       </c>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3533,7 +3544,7 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3562,7 +3573,7 @@
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3593,7 +3604,7 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3645,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H75" s="13">
         <v>10</v>
@@ -3655,7 +3666,7 @@
       </c>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3686,7 +3697,7 @@
       </c>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3717,7 +3728,7 @@
       </c>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3748,7 +3759,7 @@
       </c>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3779,7 +3790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3808,7 +3819,7 @@
       </c>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3839,7 +3850,7 @@
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3870,7 +3881,7 @@
       </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3901,7 +3912,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3932,7 +3943,7 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3965,7 +3976,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3996,7 +4007,7 @@
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4027,7 +4038,7 @@
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4058,7 +4069,7 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4089,7 +4100,7 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4120,7 +4131,7 @@
       </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4172,7 +4183,7 @@
         <v>30</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H92" s="13">
         <v>15</v>
@@ -4182,7 +4193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4206,12 +4217,14 @@
         <v>43</v>
       </c>
       <c r="H93" s="13"/>
-      <c r="I93" s="14"/>
+      <c r="I93" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="J93" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4242,7 +4255,7 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4273,7 +4286,7 @@
       </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4304,7 +4317,7 @@
       </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4335,7 +4348,7 @@
       </c>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4359,12 +4372,14 @@
         <v>43</v>
       </c>
       <c r="H98" s="13"/>
-      <c r="I98" s="14"/>
+      <c r="I98" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="J98" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4395,7 +4410,7 @@
       </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4424,7 +4439,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4453,7 +4468,7 @@
       <c r="I101" s="14"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4482,7 +4497,7 @@
       <c r="I102" s="14"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4503,9 +4518,11 @@
         <v>10</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H103" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="H103" s="13">
+        <v>21</v>
+      </c>
       <c r="I103" s="14"/>
       <c r="J103" s="12"/>
     </row>
@@ -4530,7 +4547,7 @@
         <v>8</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H104" s="13">
         <v>21</v>
@@ -4538,7 +4555,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4567,7 +4584,7 @@
       <c r="I105" s="14"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4596,7 +4613,7 @@
       <c r="I106" s="14"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4625,7 +4642,7 @@
       <c r="I107" s="14"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4654,7 +4671,7 @@
       <c r="I108" s="14"/>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4675,13 +4692,15 @@
         <v>5</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H109" s="13"/>
-      <c r="I109" s="14"/>
+      <c r="I109" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4710,7 +4729,7 @@
       <c r="I110" s="14"/>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4734,10 +4753,12 @@
         <v>43</v>
       </c>
       <c r="H111" s="13"/>
-      <c r="I111" s="14"/>
+      <c r="I111" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="J111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4758,13 +4779,15 @@
         <v>5</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H112" s="13"/>
-      <c r="I112" s="14"/>
+      <c r="I112" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4785,7 +4808,7 @@
         <v>8</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H113" s="13">
         <v>21</v>
@@ -4793,7 +4816,7 @@
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4817,10 +4840,12 @@
         <v>43</v>
       </c>
       <c r="H114" s="13"/>
-      <c r="I114" s="14"/>
+      <c r="I114" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="J114" s="12"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4849,7 +4874,7 @@
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4870,9 +4895,11 @@
         <v>6</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H116" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="H116" s="13">
+        <v>19</v>
+      </c>
       <c r="I116" s="14"/>
       <c r="J116" s="12"/>
     </row>
@@ -4897,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H117" s="13">
         <v>21</v>
@@ -4926,10 +4953,14 @@
         <v>5</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="H118" s="13">
+        <v>22</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="J118" s="12"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">

--- a/proyecto/iteraciones/Product BackLog.xlsx
+++ b/proyecto/iteraciones/Product BackLog.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Auxiliar" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="147">
   <si>
     <t>Prioridad</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Informacion del diseño de examen en la correccion</t>
+  </si>
+  <si>
+    <t>Ejecutar Ciclos de Test</t>
   </si>
 </sst>
 </file>
@@ -923,13 +926,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B3:J142" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B3:J142">
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="En desarrollo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:J142"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Historia" dataDxfId="8"/>
     <tableColumn id="2" name="Instancia" dataDxfId="7"/>
@@ -1240,7 +1237,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1327,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -1360,7 +1357,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <f>A4+1</f>
         <v>2</v>
@@ -1391,7 +1388,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
@@ -1422,7 +1419,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1451,7 +1448,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1482,7 +1479,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1513,7 +1510,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1544,7 +1541,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1575,7 +1572,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1606,7 +1603,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1637,7 +1634,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1670,7 +1667,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1703,7 +1700,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1736,7 +1733,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1769,7 +1766,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1802,7 +1799,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1835,7 +1832,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1868,7 +1865,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1901,7 +1898,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1934,7 +1931,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1967,7 +1964,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2000,7 +1997,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2033,7 +2030,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2066,7 +2063,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2099,7 +2096,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2132,7 +2129,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2165,7 +2162,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2198,7 +2195,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2231,7 +2228,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2264,7 +2261,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2297,7 +2294,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="32.25" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2330,7 +2327,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2363,7 +2360,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2396,7 +2393,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2429,7 +2426,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2462,7 +2459,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2495,7 +2492,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2528,7 +2525,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2561,7 +2558,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2594,7 +2591,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2627,7 +2624,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2660,7 +2657,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2693,7 +2690,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2726,7 +2723,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2759,7 +2756,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2792,7 +2789,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2825,7 +2822,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2858,7 +2855,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2891,7 +2888,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2924,7 +2921,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2957,7 +2954,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2990,7 +2987,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3058,7 +3055,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3091,7 +3088,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3124,7 +3121,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3157,7 +3154,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3190,7 +3187,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3256,7 +3253,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3289,7 +3286,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3322,7 +3319,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3355,7 +3352,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3388,7 +3385,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3421,7 +3418,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3453,7 +3450,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3484,7 +3481,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" ref="A70:A133" si="1">A69+1</f>
         <v>67</v>
@@ -3515,7 +3512,7 @@
       </c>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3544,7 +3541,7 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3573,7 +3570,7 @@
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3604,7 +3601,7 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3666,7 +3663,7 @@
       </c>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3697,7 +3694,7 @@
       </c>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3728,7 +3725,7 @@
       </c>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3759,7 +3756,7 @@
       </c>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3790,7 +3787,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3819,7 +3816,7 @@
       </c>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3850,7 +3847,7 @@
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3881,7 +3878,7 @@
       </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3912,7 +3909,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3943,7 +3940,7 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3976,7 +3973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4007,7 +4004,7 @@
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4038,7 +4035,7 @@
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4069,7 +4066,7 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4100,7 +4097,7 @@
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4193,7 +4190,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4224,7 +4221,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4255,7 +4252,7 @@
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4286,7 +4283,7 @@
       </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4317,7 +4314,7 @@
       </c>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4348,7 +4345,7 @@
       </c>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4379,7 +4376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4410,7 +4407,7 @@
       </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4439,7 +4436,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4468,7 +4465,7 @@
       <c r="I101" s="14"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4497,7 +4494,7 @@
       <c r="I102" s="14"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4555,7 +4552,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4584,7 +4581,7 @@
       <c r="I105" s="14"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4613,7 +4610,7 @@
       <c r="I106" s="14"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4642,7 +4639,7 @@
       <c r="I107" s="14"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4671,7 +4668,7 @@
       <c r="I108" s="14"/>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4700,7 +4697,7 @@
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4729,7 +4726,7 @@
       <c r="I110" s="14"/>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4758,7 +4755,7 @@
       </c>
       <c r="J111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4787,7 +4784,7 @@
       </c>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4816,7 +4813,7 @@
       <c r="I113" s="14"/>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4845,7 +4842,7 @@
       </c>
       <c r="J114" s="12"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4874,7 +4871,7 @@
       <c r="I115" s="14"/>
       <c r="J115" s="12"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4968,13 +4965,27 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+      <c r="B119" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="13">
+        <v>5</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H119" s="13">
+        <v>22</v>
+      </c>
       <c r="I119" s="14"/>
       <c r="J119" s="12"/>
     </row>
